--- a/QA_reports/bug_reports/FR12_BUG REPORT_IZ.xlsx
+++ b/QA_reports/bug_reports/FR12_BUG REPORT_IZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vartotojas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vartotojas\Desktop\Bug_replase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0920C4-B5D4-4713-A17E-26F019F032C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6B561F-BD16-41E8-BF72-FE5F30FB1B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="3315" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14235" yWindow="4185" windowWidth="15525" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FR12_Bug_Report" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Field</t>
   </si>
@@ -47,12 +47,21 @@
     <t>Defect ID</t>
   </si>
   <si>
+    <t>BUG-FR12_1-8 (BUG-FR12_2-7, BUG-FR12_1-7)</t>
+  </si>
+  <si>
     <t>Date Reported</t>
   </si>
   <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
     <t>Module/Component</t>
   </si>
   <si>
+    <t>Home Page, "companies" section</t>
+  </si>
+  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -62,27 +71,48 @@
     <t>Reported By</t>
   </si>
   <si>
+    <t>Ingrida Zadorožnienė</t>
+  </si>
+  <si>
     <t>Summary</t>
   </si>
   <si>
+    <t>Figma design mismatch</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Wrong logos/names positions</t>
+  </si>
+  <si>
     <t>Steps to Reproduce</t>
   </si>
   <si>
+    <t>Checking figma requirements</t>
+  </si>
+  <si>
     <t>Expected Behavior</t>
   </si>
   <si>
+    <t xml:space="preserve"> Logos/names positions should match the figma design, section heigh is bad (BUG-FR12_1-8)</t>
+  </si>
+  <si>
     <t>Actual Behavior</t>
   </si>
   <si>
+    <t xml:space="preserve"> Logos/names positions do not match the figma design, section heigh should match (BUG-FR12_1-8)</t>
+  </si>
+  <si>
     <t>Attachments</t>
   </si>
   <si>
     <t>Environment</t>
   </si>
   <si>
+    <t>Windows 11, Chrome Version 119.0.6045.160</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -92,54 +122,27 @@
     <t>Comments/Notes</t>
   </si>
   <si>
-    <t>Ingrida Zadorožnienė</t>
-  </si>
-  <si>
     <t>The problem is the same on mobile, tablet, desktop devices</t>
   </si>
   <si>
-    <t>2023-12-03</t>
-  </si>
-  <si>
-    <t>Home Page, "companies" section</t>
-  </si>
-  <si>
-    <t>Wrong logos/names positions</t>
-  </si>
-  <si>
-    <t>Checking figma requirements</t>
-  </si>
-  <si>
-    <t>Figma design mismatch</t>
-  </si>
-  <si>
-    <t>Windows 11, Chrome Version 119.0.6045.160</t>
-  </si>
-  <si>
     <t>BUG-FR12_1-6 (BUG-FR12_2-5, BUG-FR12-5)</t>
   </si>
   <si>
-    <t>BUG-FR12_1-8 (BUG-FR12_2-7, BUG-FR12-7)</t>
+    <t>The link/button is not working</t>
+  </si>
+  <si>
+    <t>Button "About Us" is not linkable</t>
+  </si>
+  <si>
+    <t>1. Go to "Home" page. 2. Go to "companies" section. 3. Click the "About Us" button.</t>
   </si>
   <si>
     <t>Button "About Us" should open and redirect the user to the corresponding page</t>
   </si>
   <si>
-    <t>1. Go to "Home" page. 2. Go to "companies" section. 3. Click the "About Us" button.</t>
-  </si>
-  <si>
     <t>Button "About Us" does not open and redirect the user to the corresponding page</t>
   </si>
   <si>
-    <t>Button "About Us" is not linkable</t>
-  </si>
-  <si>
-    <t>The link/button is not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Logos/names positions do not match the figma design, section heigh should match (BUG-FR12_1-8)</t>
-  </si>
-  <si>
     <t>BUG-FR12_2-1,2,3</t>
   </si>
   <si>
@@ -149,16 +152,16 @@
     <t>Left part of section is badly aligned</t>
   </si>
   <si>
+    <t>Checking AC requirements (figma design)</t>
+  </si>
+  <si>
+    <t>Left part of section should be feft aligned</t>
+  </si>
+  <si>
     <t>Left part of section is aligned through the middle</t>
   </si>
   <si>
-    <t>Left part of section should be feft aligned</t>
-  </si>
-  <si>
-    <t>Checking AC requirements (figma design)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Logos/names positions should match the figma design, section heigh is bad (BUG-FR12_1-8)</t>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -529,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A28DEC7-3A85-4634-9A39-00437FF56681}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,119 +556,121 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,56 +686,56 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>31</v>
@@ -738,62 +743,64 @@
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,116 +816,118 @@
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="54" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B55" s="3"/>
     </row>
